--- a/テスト用.xlsx
+++ b/テスト用.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -29,21 +29,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
+    <t>y</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -372,7 +362,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -382,10 +372,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">

--- a/テスト用.xlsx
+++ b/テスト用.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -362,7 +366,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -372,7 +376,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
